--- a/subject.xlsx
+++ b/subject.xlsx
@@ -1,97 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TriTueNhanTao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5BC09-235E-4865-9AE8-44EDB6CD9B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Subjects" sheetId="1" r:id="rId1"/>
+    <sheet name="Subjects" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>ID_subject</t>
-  </si>
-  <si>
-    <t>name_subject</t>
-  </si>
-  <si>
-    <t>ID_grade</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>Toán</t>
-  </si>
-  <si>
-    <t>G001</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>Vật Lý</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>Hóa Học</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>G002</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>G003</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,127 +407,956 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11:C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col width="16.140625" customWidth="1" min="1" max="1"/>
+    <col width="21.140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID_subject</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name_subject</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ID_grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>S011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>S012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>G005</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>S014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G005</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>G005</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>G006</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>G006</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>S018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G006</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>S020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>S021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>S022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>G008</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>S023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>G008</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>S024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>G008</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>S025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>G009</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>S026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>G009</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>S027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>G009</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>S029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>S030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G010</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>S031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>G011</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>S032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>G011</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>S033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>G011</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>S034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>G012</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>S035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>G012</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>S036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>G012</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>S037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>S038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>S039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>S040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>G014</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>S041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>G014</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>S042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>G014</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>S043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>G015</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>S044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>G015</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>S045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>G015</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>S047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>S048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>G016</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>S049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>G017</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>S050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>G017</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>S051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>G017</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>S052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Toán</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>G018</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>S053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vật Lý</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>G018</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>S054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hóa Học</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>G018</t>
+        </is>
       </c>
     </row>
   </sheetData>
